--- a/Data/LT_output_17ii.xlsx
+++ b/Data/LT_output_17ii.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeVriesK\Documents\Documents\TCB\Other TCB projects\EUKLEMS\2018 revisions\Datafiles\OUTPUT FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emma\OneDrive\Speciale\Speciale-oecon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BFEC23-42EC-425D-A932-DC68821931ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E9BFEC23-42EC-425D-A932-DC68821931ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E87BD9B4-D45C-43C6-ABF3-A15601D46446}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="870" yWindow="885" windowWidth="27255" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="40" r:id="rId1"/>
@@ -3173,7 +3173,7 @@
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Link" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 11" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -3206,7 +3206,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3528,20 +3528,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="4" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="10.28515625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="9.578125" style="4" customWidth="1"/>
+    <col min="3" max="9" width="9.15625" style="4"/>
+    <col min="10" max="10" width="10.26171875" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.15625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.899999999999999" x14ac:dyDescent="0.65">
       <c r="A1" s="2" t="s">
         <v>894</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="18.899999999999999" x14ac:dyDescent="0.65">
       <c r="A2" s="5" t="s">
         <v>809</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="41" t="s">
         <v>960</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="I3" s="41"/>
       <c r="J3" s="41"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -3595,7 +3595,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
         <v>810</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -3621,7 +3621,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12" t="s">
         <v>811</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="14" t="s">
         <v>812</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14" t="s">
         <v>813</v>
       </c>
@@ -3666,7 +3666,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14" t="s">
         <v>814</v>
       </c>
@@ -3681,7 +3681,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14" t="s">
         <v>815</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="J11" s="11"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14" t="s">
         <v>816</v>
       </c>
@@ -3713,7 +3713,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14" t="s">
         <v>818</v>
       </c>
@@ -3729,7 +3729,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14" t="s">
         <v>820</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="14" t="s">
         <v>821</v>
       </c>
@@ -3761,7 +3761,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="16"/>
       <c r="B16" s="15"/>
       <c r="C16" s="11"/>
@@ -3773,7 +3773,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17" t="s">
         <v>822</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14" t="s">
         <v>823</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="16"/>
       <c r="B19" s="15"/>
       <c r="C19" s="11"/>
@@ -3815,7 +3815,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17" t="s">
         <v>825</v>
       </c>
@@ -3837,7 +3837,7 @@
       <c r="Q20" s="31"/>
       <c r="R20" s="31"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="14" t="s">
         <v>826</v>
       </c>
@@ -3861,7 +3861,7 @@
       <c r="Q21" s="31"/>
       <c r="R21" s="31"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="14" t="s">
         <v>827</v>
       </c>
@@ -3885,7 +3885,7 @@
       <c r="Q22" s="31"/>
       <c r="R22" s="31"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="16"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -3904,7 +3904,7 @@
       <c r="P23" s="31"/>
       <c r="Q23" s="31"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="17" t="s">
         <v>829</v>
       </c>
@@ -3918,7 +3918,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="14" t="s">
         <v>830</v>
       </c>
@@ -3934,7 +3934,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="14" t="s">
         <v>831</v>
       </c>
@@ -3950,7 +3950,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="14" t="s">
         <v>832</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="34" t="s">
         <v>834</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="34" t="s">
         <v>954</v>
       </c>
@@ -3998,7 +3998,7 @@
       <c r="I29" s="33"/>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="34" t="s">
         <v>956</v>
       </c>
@@ -4014,7 +4014,7 @@
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="14"/>
       <c r="B31" s="13"/>
       <c r="C31" s="11"/>
@@ -4026,7 +4026,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="20" t="s">
         <v>836</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="14" t="s">
         <v>837</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="34" t="s">
         <v>839</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="34" t="s">
         <v>841</v>
       </c>
@@ -4088,7 +4088,7 @@
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="34" t="s">
         <v>843</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="34" t="s">
         <v>845</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="34" t="s">
         <v>847</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="34" t="s">
         <v>849</v>
       </c>
@@ -4152,7 +4152,7 @@
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="16"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
@@ -4164,7 +4164,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="20" t="s">
         <v>851</v>
       </c>
@@ -4178,7 +4178,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="14" t="s">
         <v>852</v>
       </c>
@@ -4194,7 +4194,7 @@
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="34" t="s">
         <v>853</v>
       </c>
@@ -4210,7 +4210,7 @@
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="34" t="s">
         <v>855</v>
       </c>
@@ -4226,7 +4226,7 @@
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="34" t="s">
         <v>857</v>
       </c>
@@ -4242,7 +4242,7 @@
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="34" t="s">
         <v>859</v>
       </c>
@@ -4258,7 +4258,7 @@
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="34" t="s">
         <v>861</v>
       </c>
@@ -4274,7 +4274,7 @@
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="21"/>
@@ -4286,7 +4286,7 @@
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="20" t="s">
         <v>863</v>
       </c>
@@ -4300,7 +4300,7 @@
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="14" t="s">
         <v>864</v>
       </c>
@@ -4316,7 +4316,7 @@
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="34" t="s">
         <v>866</v>
       </c>
@@ -4332,7 +4332,7 @@
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="34" t="s">
         <v>868</v>
       </c>
@@ -4348,7 +4348,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="34" t="s">
         <v>870</v>
       </c>
@@ -4364,7 +4364,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="34" t="s">
         <v>872</v>
       </c>
@@ -4380,7 +4380,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="19"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="34" t="s">
         <v>874</v>
       </c>
@@ -4396,7 +4396,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="16"/>
       <c r="B56" s="15"/>
       <c r="C56" s="19"/>
@@ -4408,7 +4408,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="13"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -4420,7 +4420,7 @@
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="8" t="s">
         <v>876</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="43" t="s">
         <v>877</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="I59" s="43"/>
       <c r="J59" s="43"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="22" t="s">
         <v>958</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="I60" s="23"/>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="22"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -4474,7 +4474,7 @@
       <c r="I61" s="23"/>
       <c r="J61" s="11"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="23" t="s">
         <v>878</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="I62" s="23"/>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -4499,7 +4499,7 @@
       <c r="I63" s="23"/>
       <c r="J63" s="11"/>
     </row>
-    <row r="64" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="25" t="s">
         <v>879</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="I64" s="27"/>
       <c r="J64" s="27"/>
     </row>
-    <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
@@ -4525,7 +4525,7 @@
       <c r="I65" s="28"/>
       <c r="J65" s="28"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="41" t="s">
         <v>880</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="I66" s="41"/>
       <c r="J66" s="41"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="42" t="s">
         <v>881</v>
       </c>
@@ -4553,7 +4553,7 @@
       <c r="I67" s="42"/>
       <c r="J67" s="42"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="29"/>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
@@ -4565,7 +4565,7 @@
       <c r="I68" s="30"/>
       <c r="J68" s="30"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="29" t="s">
         <v>882</v>
       </c>
@@ -4579,7 +4579,7 @@
       <c r="I69" s="30"/>
       <c r="J69" s="30"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="29" t="s">
         <v>883</v>
       </c>
@@ -4636,16 +4636,16 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
-    <col min="13" max="27" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="47" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="12" width="9.15625" style="1"/>
+    <col min="13" max="27" width="10.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="47" width="10.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>2481927</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>1916130</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>228698</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>4329</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>384972</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>84959.877205398152</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>56310.231313862118</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>62503.900900853761</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -5658,7 +5658,7 @@
       <c r="AX10" s="38"/>
       <c r="AY10" s="38"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>11788.433529858379</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>31043.024668094309</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>27055.011658126499</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>12822.584734290765</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>14795.54691670582</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>6003.8308302777059</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>73243.569272213426</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>48190</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>204675</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>421350</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -6672,7 +6672,7 @@
       <c r="AU21" s="39"/>
       <c r="AV21" s="40"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -6726,7 +6726,7 @@
       <c r="AU22" s="39"/>
       <c r="AV22" s="40"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -6780,7 +6780,7 @@
       <c r="AU23" s="39"/>
       <c r="AV23" s="40"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>194679</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -6930,7 +6930,7 @@
       <c r="AU25" s="39"/>
       <c r="AV25" s="40"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -6984,7 +6984,7 @@
       <c r="AU26" s="39"/>
       <c r="AV26" s="40"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>63219</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>50020</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>12399.34408602889</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>13541.386247589509</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>24080.377820543261</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>32969</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>26239</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>188205</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>634382</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>157166</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>211658</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>168672</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>94824</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>50038</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -8605,16 +8605,16 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
-    <col min="13" max="27" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="47" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="12" width="9.15625" style="1"/>
+    <col min="13" max="27" width="10.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="47" width="10.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>2169404</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>1613812</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>97336</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>363689</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>83278.015095231196</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>51110.957420195853</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>57304.605866437327</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -9627,7 +9627,7 @@
       <c r="AX10" s="38"/>
       <c r="AY10" s="38"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>11641.433346289918</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>29677.866444468971</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>24966.426375344439</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>12662.682573846474</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>14610.26083484576</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>5929.1300154598484</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>68117.01454125678</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>47996</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>174809</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>368413</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -10641,7 +10641,7 @@
       <c r="AU21" s="39"/>
       <c r="AV21" s="40"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -10695,7 +10695,7 @@
       <c r="AU22" s="39"/>
       <c r="AV22" s="40"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -10749,7 +10749,7 @@
       <c r="AU23" s="39"/>
       <c r="AV23" s="40"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>184383</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -10899,7 +10899,7 @@
       <c r="AU25" s="39"/>
       <c r="AV25" s="40"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -10953,7 +10953,7 @@
       <c r="AU26" s="39"/>
       <c r="AV26" s="40"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>58592</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>10969.675135091111</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>12067.007514456431</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>20989.317350452449</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>30348</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>23355</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>168146</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>604091</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>157166</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>210232</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>163204</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>71854</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>46928</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>24926</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -12574,17 +12574,17 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
-    <col min="13" max="39" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="47" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="12" width="9.15625" style="1"/>
+    <col min="13" max="39" width="9.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="47" width="9.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>17398.190833932247</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>13473.794995459721</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>881.55964494123441</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>46.8804028436019</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>2892.8482253090228</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>566.38964419721447</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>317.79522783666931</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>383.2062443960321</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -13597,7 +13597,7 @@
       <c r="AX10" s="38"/>
       <c r="AY10" s="38"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>152.44240743116407</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>264.23238635887185</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>211.32573183758532</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>142.14733506506951</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>107.35756153283999</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>64.135277339368244</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>628.26667197555889</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>385.63281908950006</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>1467.1912916383023</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>3106.6032007556742</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -14611,7 +14611,7 @@
       <c r="AU21" s="39"/>
       <c r="AV21" s="40"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -14665,7 +14665,7 @@
       <c r="AU22" s="39"/>
       <c r="AV22" s="40"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -14719,7 +14719,7 @@
       <c r="AU23" s="39"/>
       <c r="AV23" s="40"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>1442.7001708400451</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -14869,7 +14869,7 @@
       <c r="AU25" s="39"/>
       <c r="AV25" s="40"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -14923,7 +14923,7 @@
       <c r="AU26" s="39"/>
       <c r="AV26" s="40"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>344.62296217913706</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>747.00104547857643</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -15211,7 +15211,7 @@
         <v>113.3254250320676</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>192.16162785308336</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>441.51399259342548</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>372.40586529590092</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>205.03607364590025</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>1331.8492827661676</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -15787,7 +15787,7 @@
         <v>4173.8598491491803</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -15883,7 +15883,7 @@
         <v>1182.7</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>1323.3155523421744</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>1176.6443959706869</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>454.50008432255765</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>218.58570576201842</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>235.91437856053921</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>36.699816513761476</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -16484,13 +16484,13 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="48" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="48" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>16178.109166067748</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>13046.305004540282</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>338.94035505876559</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -17020,7 +17020,7 @@
         <v>56.819597156398103</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>3601.0517746909768</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -17212,7 +17212,7 @@
         <v>963.13857682173557</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>207.66463780796647</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -17404,7 +17404,7 @@
         <v>390.58998796197142</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -17503,7 +17503,7 @@
       <c r="AX10" s="38"/>
       <c r="AY10" s="38"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>490.74043861628388</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -17695,7 +17695,7 @@
         <v>403.29907086717856</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>138.48865317956685</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>115.80079030112557</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -17983,7 +17983,7 @@
         <v>96.547907445088711</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>127.15471860975005</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>457.37817944662106</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>596.66718091050006</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>973.20870836169775</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>3007.2967992443255</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -18517,7 +18517,7 @@
       <c r="AU21" s="39"/>
       <c r="AV21" s="40"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -18571,7 +18571,7 @@
       <c r="AU22" s="39"/>
       <c r="AV22" s="40"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -18625,7 +18625,7 @@
       <c r="AU23" s="39"/>
       <c r="AV23" s="40"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>2470.8998291599546</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -18775,7 +18775,7 @@
       <c r="AU25" s="39"/>
       <c r="AV25" s="40"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -18829,7 +18829,7 @@
       <c r="AU26" s="39"/>
       <c r="AV26" s="40"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>171.77703782086292</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>412.79895452142352</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>69.487519456808812</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>342.37551067214645</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -19309,7 +19309,7 @@
         <v>0.87943145530311995</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -19405,7 +19405,7 @@
         <v>327.1941347040991</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -19501,7 +19501,7 @@
         <v>2050.6639263540997</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -19597,7 +19597,7 @@
         <v>854.55071723383253</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -19693,7 +19693,7 @@
         <v>1316.2401508508192</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>858.5</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>156.3844476578256</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -19981,7 +19981,7 @@
         <v>73.855604029313099</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -20077,7 +20077,7 @@
         <v>235.09991567744225</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>150.31429423798156</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>84.785621439460783</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -20365,7 +20365,7 @@
         <v>-7.5998165137614748</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -20390,13 +20390,13 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="48" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="48" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -20542,7 +20542,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -20638,7 +20638,7 @@
         <v>113.68859379200499</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -20734,7 +20734,7 @@
         <v>115.39801011124023</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -20830,7 +20830,7 @@
         <v>110.80758160447822</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -20926,7 +20926,7 @@
         <v>138.06241586414004</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -21022,7 +21022,7 @@
         <v>124.0737168737591</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -21118,7 +21118,7 @@
         <v>113.75485073461221</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -21214,7 +21214,7 @@
         <v>152.44847051074356</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -21310,7 +21310,7 @@
         <v>128.05890385689801</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -21364,7 +21364,7 @@
       <c r="AU10" s="39"/>
       <c r="AV10" s="40"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>129.13774769579192</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -21556,7 +21556,7 @@
         <v>127.57327644991136</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -21652,7 +21652,7 @@
         <v>121.7202616793696</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -21748,7 +21748,7 @@
         <v>126.81397141849764</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -21844,7 +21844,7 @@
         <v>118.32237485441412</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -21940,7 +21940,7 @@
         <v>134.73028788259452</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -22036,7 +22036,7 @@
         <v>147.36285870865157</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -22132,7 +22132,7 @@
         <v>86.72118150271497</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -22228,7 +22228,7 @@
         <v>113.7167495820018</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -22324,7 +22324,7 @@
         <v>131.12485121961703</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -22378,7 +22378,7 @@
       <c r="AU21" s="39"/>
       <c r="AV21" s="40"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -22432,7 +22432,7 @@
       <c r="AU22" s="39"/>
       <c r="AV22" s="40"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -22486,7 +22486,7 @@
       <c r="AU23" s="39"/>
       <c r="AV23" s="40"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -22582,7 +22582,7 @@
         <v>107.2899431997332</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -22636,7 +22636,7 @@
       <c r="AU25" s="39"/>
       <c r="AV25" s="40"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -22690,7 +22690,7 @@
       <c r="AU26" s="39"/>
       <c r="AV26" s="40"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -22786,7 +22786,7 @@
         <v>121.37937138810118</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -22882,7 +22882,7 @@
         <v>94.081230042831663</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -22978,7 +22978,7 @@
         <v>90.14467581806656</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -23074,7 +23074,7 @@
         <v>80.900809888486521</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -23170,7 +23170,7 @@
         <v>120.30404030781222</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -23266,7 +23266,7 @@
         <v>126.41219319252521</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -23362,7 +23362,7 @@
         <v>98.243268625842646</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -23458,7 +23458,7 @@
         <v>107.77973059995563</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -23554,7 +23554,7 @@
         <v>105.24686617278969</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -23650,7 +23650,7 @@
         <v>101.04359241602872</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -23746,7 +23746,7 @@
         <v>104.57247442253417</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -23842,7 +23842,7 @@
         <v>108.64039354440931</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -23938,7 +23938,7 @@
         <v>109.19398828644647</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -24034,7 +24034,7 @@
         <v>96.23082738659123</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>122.84943470300307</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -24226,7 +24226,7 @@
         <v>116.19461951470929</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -24251,13 +24251,13 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="48" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="48" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -24403,7 +24403,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -24473,7 +24473,7 @@
         <v>110.2669764806985</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -24543,7 +24543,7 @@
         <v>112.60072552621064</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -24613,7 +24613,7 @@
         <v>122.95255750562985</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -24683,7 +24683,7 @@
         <v>63.150223821866561</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -24753,7 +24753,7 @@
         <v>109.22046836074212</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -24823,7 +24823,7 @@
         <v>110.59510543069331</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -24893,7 +24893,7 @@
         <v>94.273250051237255</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -24963,7 +24963,7 @@
         <v>113.27947024529942</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -25033,7 +25033,7 @@
         <v>72.957889913033995</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>89.334679679176915</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -25173,7 +25173,7 @@
         <v>110.41684071048982</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -25243,7 +25243,7 @@
         <v>127.46066425128458</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -25313,7 +25313,7 @@
         <v>100.5369934971262</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -25383,7 +25383,7 @@
         <v>137.31961060374266</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -25453,7 +25453,7 @@
         <v>91.367547020360206</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -25523,7 +25523,7 @@
         <v>118.10779740076897</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -25593,7 +25593,7 @@
         <v>99.322462549843891</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -25663,7 +25663,7 @@
         <v>127.05185781399838</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -25733,7 +25733,7 @@
         <v>104.36645609534867</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -25787,7 +25787,7 @@
       <c r="AU21" s="39"/>
       <c r="AV21" s="39"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -25841,7 +25841,7 @@
       <c r="AU22" s="39"/>
       <c r="AV22" s="39"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -25895,7 +25895,7 @@
       <c r="AU23" s="39"/>
       <c r="AV23" s="39"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -25965,7 +25965,7 @@
         <v>114.82925305499302</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -26019,7 +26019,7 @@
       <c r="AU25" s="39"/>
       <c r="AV25" s="39"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -26073,7 +26073,7 @@
       <c r="AU26" s="39"/>
       <c r="AV26" s="39"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -26143,7 +26143,7 @@
         <v>111.11929041838634</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -26213,7 +26213,7 @@
         <v>132.34533668243412</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -26283,7 +26283,7 @@
         <v>108.91758190563854</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -26353,7 +26353,7 @@
         <v>141.04761363131911</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -26423,7 +26423,7 @@
         <v>143.24750666802097</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -26493,7 +26493,7 @@
         <v>96.237907618044616</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -26563,7 +26563,7 @@
         <v>120.39637222342238</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -26633,7 +26633,7 @@
         <v>119.06717792911707</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -26703,7 +26703,7 @@
         <v>103.62241729909739</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -26773,7 +26773,7 @@
         <v>108.93979735980427</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -26843,7 +26843,7 @@
         <v>96.204971541017983</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -26913,7 +26913,7 @@
         <v>104.96945185759959</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>115.06203445828322</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -27053,7 +27053,7 @@
         <v>131.57402372174852</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -27123,7 +27123,7 @@
         <v>98.486212780041271</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -27193,7 +27193,7 @@
         <v>85.143833629708752</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -27218,13 +27218,13 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="48" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="48" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -27370,7 +27370,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -27464,7 +27464,7 @@
         <v>1.7759734793472006</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -27558,7 +27558,7 @@
         <v>1.9483719179890311</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -27652,7 +27652,7 @@
         <v>2.5397565521419461</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -27746,7 +27746,7 @@
         <v>-14.043654366321027</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -27840,7 +27840,7 @@
         <v>2.7918919998869454</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -27934,7 +27934,7 @@
         <v>3.7340633287495635</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -28028,7 +28028,7 @@
         <v>1.119731473288186</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -28122,7 +28122,7 @@
         <v>1.4723458328472758</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -28176,7 +28176,7 @@
       <c r="AU10" s="39"/>
       <c r="AV10" s="39"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -28270,7 +28270,7 @@
         <v>1.0350156381404592</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -28364,7 +28364,7 @@
         <v>1.4611853040229728</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -28458,7 +28458,7 @@
         <v>2.9072086323115331</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -28552,7 +28552,7 @@
         <v>1.0156842208317147</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -28646,7 +28646,7 @@
         <v>6.6445152553881961</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -28740,7 +28740,7 @@
         <v>5.3679627887277839</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -28834,7 +28834,7 @@
         <v>8.8690458999744606E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -28928,7 +28928,7 @@
         <v>-2.7288589931643403</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -29022,7 +29022,7 @@
         <v>-0.85582822390897695</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -29116,7 +29116,7 @@
         <v>3.883111137110598</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -29210,7 +29210,7 @@
         <v>8.5382404625238753</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -29304,7 +29304,7 @@
         <v>3.0691110493323177</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -29398,7 +29398,7 @@
         <v>3.657546280171974</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -29492,7 +29492,7 @@
         <v>-1.8765659044996779</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -29586,7 +29586,7 @@
         <v>-1.8964079398022531</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -29680,7 +29680,7 @@
         <v>-0.78362603502973438</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -29774,7 +29774,7 @@
         <v>5.6955734417296515</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -29868,7 +29868,7 @@
         <v>5.1113816667233456</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -29962,7 +29962,7 @@
         <v>6.2382119684068593</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -30056,7 +30056,7 @@
         <v>7.9701625572339809</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -30150,7 +30150,7 @@
         <v>1.3118358781194261</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -30244,7 +30244,7 @@
         <v>3.1151891422318867</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -30338,7 +30338,7 @@
         <v>1.7281062025535869</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -30432,7 +30432,7 @@
         <v>4.8760454152697852</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -30526,7 +30526,7 @@
         <v>0.73457399955758507</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -30620,7 +30620,7 @@
         <v>1.1032509067911125</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -30714,7 +30714,7 @@
         <v>-2.28249706168362E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -30808,7 +30808,7 @@
         <v>1.4038507582922053</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -30902,7 +30902,7 @@
         <v>8.1824498189981415E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -30996,7 +30996,7 @@
         <v>3.8554730943689179</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -31090,7 +31090,7 @@
         <v>-4.0341004546181702</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -31184,7 +31184,7 @@
         <v>-1.252625981918037</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -31209,13 +31209,13 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="48" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="48" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -31361,7 +31361,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -31455,7 +31455,7 @@
         <v>0.11869186534276184</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -31549,7 +31549,7 @@
         <v>0.36425467707669934</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -31643,7 +31643,7 @@
         <v>0.21247047353995829</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -31737,7 +31737,7 @@
         <v>52.043273353266649</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -31831,7 +31831,7 @@
         <v>0.95472686174830002</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -31925,7 +31925,7 @@
         <v>2.6977820293834975</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -32019,7 +32019,7 @@
         <v>-2.1148010020224768</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -32113,7 +32113,7 @@
         <v>1.398881996930526</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -32167,7 +32167,7 @@
       <c r="AU10" s="39"/>
       <c r="AV10" s="39"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -32261,7 +32261,7 @@
         <v>1.415023055505265</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -32355,7 +32355,7 @@
         <v>2.327106504998814</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -32449,7 +32449,7 @@
         <v>-0.46068761175243783</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -32543,7 +32543,7 @@
         <v>4.4978188614110772</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -32637,7 +32637,7 @@
         <v>2.7541584766373521</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -32731,7 +32731,7 @@
         <v>11.523338016712323</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -32825,7 +32825,7 @@
         <v>-5.1720690621424783</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -32919,7 +32919,7 @@
         <v>-6.0141622413715936</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -33013,7 +33013,7 @@
         <v>-7.3429418436113139</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -33107,7 +33107,7 @@
         <v>5.9643055162036109</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -33161,7 +33161,7 @@
       <c r="AU21" s="39"/>
       <c r="AV21" s="39"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -33215,7 +33215,7 @@
       <c r="AU22" s="39"/>
       <c r="AV22" s="39"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -33269,7 +33269,7 @@
       <c r="AU23" s="39"/>
       <c r="AV23" s="39"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -33363,7 +33363,7 @@
         <v>-1.6400457682776728</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -33417,7 +33417,7 @@
       <c r="AU25" s="39"/>
       <c r="AV25" s="39"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -33471,7 +33471,7 @@
       <c r="AU26" s="39"/>
       <c r="AV26" s="39"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -33565,7 +33565,7 @@
         <v>-2.3824101404197489</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -33659,7 +33659,7 @@
         <v>-5.8007817070041812</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>-3.7741824153726675</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -33847,7 +33847,7 @@
         <v>-1.9625525074478136</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -33941,7 +33941,7 @@
         <v>-10.624408895017796</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -34035,7 +34035,7 @@
         <v>4.7577265212161279</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -34129,7 +34129,7 @@
         <v>7.222445713902939</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -34223,7 +34223,7 @@
         <v>-1.7299197104356721</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -34317,7 +34317,7 @@
         <v>-4.0662061774266212</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -34411,7 +34411,7 @@
         <v>-2.0608234434068042</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -34505,7 +34505,7 @@
         <v>-6.3907262599523715</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -34599,7 +34599,7 @@
         <v>-6.5954301727640914</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -34693,7 +34693,7 @@
         <v>-0.41927492544809286</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -34787,7 +34787,7 @@
         <v>3.2641764356646377</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -34881,7 +34881,7 @@
         <v>-4.4368216003055068</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -34975,7 +34975,7 @@
         <v>-7.7646909623622404</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -35000,13 +35000,13 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="48" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="48" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -35152,7 +35152,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -35246,7 +35246,7 @@
         <v>0.94019819268279647</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -35340,7 +35340,7 @@
         <v>1.1208649499793464</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -35434,7 +35434,7 @@
         <v>2.3244890406304819</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -35528,7 +35528,7 @@
         <v>43.602831681653711</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -35622,7 +35622,7 @@
         <v>0.67248187850770313</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -35716,7 +35716,7 @@
         <v>2.901544529316614</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -35810,7 +35810,7 @@
         <v>-3.3669468577774246</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -35904,7 +35904,7 @@
         <v>0.77242088421101518</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -35958,7 +35958,7 @@
       <c r="AU10" s="39"/>
       <c r="AV10" s="39"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -36052,7 +36052,7 @@
         <v>-1.2142708147562438</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -36146,7 +36146,7 @@
         <v>2.8535884663775386</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -36240,7 +36240,7 @@
         <v>-2.0416110120089312</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -36334,7 +36334,7 @@
         <v>6.7904337910724308</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -36428,7 +36428,7 @@
         <v>3.5735280623019423</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -36522,7 +36522,7 @@
         <v>11.355931537576424</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -36616,7 +36616,7 @@
         <v>-5.8867678484732142</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -36710,7 +36710,7 @@
         <v>-5.136325671977886</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -36804,7 +36804,7 @@
         <v>-6.5172545543479368</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -36898,7 +36898,7 @@
         <v>7.4149750687061307</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -36992,7 +36992,7 @@
         <v>5.4965847391910616</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -37086,7 +37086,7 @@
         <v>9.8121321346233756</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -37180,7 +37180,7 @@
         <v>7.3484840873754464</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -37274,7 +37274,7 @@
         <v>-0.78365885128064605</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -37368,7 +37368,7 @@
         <v>0.39080999965550878</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -37462,7 +37462,7 @@
         <v>-14.794120077592366</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -37556,7 +37556,7 @@
         <v>4.7159010672894945</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -37650,7 +37650,7 @@
         <v>-7.9275883143844661</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -37744,7 +37744,7 @@
         <v>-5.0100680787059257</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -37838,7 +37838,7 @@
         <v>-3.4326091126528748</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -37932,7 +37932,7 @@
         <v>-13.640941721118432</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -38026,7 +38026,7 @@
         <v>2.0346816013145967</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -38120,7 +38120,7 @@
         <v>7.1456796127560338</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -38214,7 +38214,7 @@
         <v>-0.69992113387647226</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -38308,7 +38308,7 @@
         <v>-2.0006807426747804</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -38402,7 +38402,7 @@
         <v>-2.1174605602529311</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -38496,7 +38496,7 @@
         <v>-2.9464937908997459</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -38590,7 +38590,7 @@
         <v>-4.455565668313076</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -38684,7 +38684,7 @@
         <v>4.8461200688567505</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -38778,7 +38778,7 @@
         <v>7.3524539642618567</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -38872,7 +38872,7 @@
         <v>2.1124574192363714</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -38966,7 +38966,7 @@
         <v>27.059999609673969</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -38991,16 +38991,16 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
-    <col min="13" max="30" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="47" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="12" width="9.15625" style="1"/>
+    <col min="13" max="30" width="9.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="47" width="9.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -39146,7 +39146,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -39242,7 +39242,7 @@
         <v>33576.299999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -39338,7 +39338,7 @@
         <v>26520.100000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -39434,7 +39434,7 @@
         <v>1220.5</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -39530,7 +39530,7 @@
         <v>103.7</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -39626,7 +39626,7 @@
         <v>6493.9</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -39722,7 +39722,7 @@
         <v>1529.52822101895</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -39818,7 +39818,7 @@
         <v>525.45986564463578</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -39914,7 +39914,7 @@
         <v>773.79623235800352</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -40013,7 +40013,7 @@
       <c r="AX10" s="38"/>
       <c r="AY10" s="38"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -40109,7 +40109,7 @@
         <v>643.18284604744792</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -40205,7 +40205,7 @@
         <v>667.53145722605041</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -40301,7 +40301,7 @@
         <v>349.81438501715218</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -40397,7 +40397,7 @@
         <v>257.94812536619509</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -40493,7 +40493,7 @@
         <v>203.90546897792871</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -40589,7 +40589,7 @@
         <v>191.28999594911829</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -40685,7 +40685,7 @@
         <v>1085.64485142218</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -40781,7 +40781,7 @@
         <v>982.30000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -40877,7 +40877,7 @@
         <v>2440.4</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -40973,7 +40973,7 @@
         <v>6113.9</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -41069,7 +41069,7 @@
         <v>650.86673424347953</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -41165,7 +41165,7 @@
         <v>2904.1295689294388</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -41261,7 +41261,7 @@
         <v>2558.9036968270811</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -41357,7 +41357,7 @@
         <v>3913.6</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -41453,7 +41453,7 @@
         <v>3833.7371876134989</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -41549,7 +41549,7 @@
         <v>79.862812386500522</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -41645,7 +41645,7 @@
         <v>516.4</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -41741,7 +41741,7 @@
         <v>1159.8</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -41837,7 +41837,7 @@
         <v>182.81294448887641</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -41933,7 +41933,7 @@
         <v>534.53713852522981</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -42029,7 +42029,7 @@
         <v>442.3934240487286</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -42125,7 +42125,7 @@
         <v>699.6</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -42221,7 +42221,7 @@
         <v>2255.6999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -42317,7 +42317,7 @@
         <v>2186.4</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -42413,7 +42413,7 @@
         <v>5490.0999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -42509,7 +42509,7 @@
         <v>2041.2</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -42605,7 +42605,7 @@
         <v>1479.7</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -42701,7 +42701,7 @@
         <v>1250.5</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -42797,7 +42797,7 @@
         <v>689.59999999999991</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -42893,7 +42893,7 @@
         <v>368.9</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -42989,7 +42989,7 @@
         <v>320.7</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -43085,7 +43085,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -43111,18 +43111,18 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="20" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="47" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="12" width="9.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="9.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="47" width="9.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -43268,7 +43268,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -43364,7 +43364,7 @@
         <v>30278.805307706745</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -43460,7 +43460,7 @@
         <v>24301.742218368578</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -43556,7 +43556,7 @@
         <v>1028.8</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -43652,7 +43652,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -43748,7 +43748,7 @@
         <v>6145.4</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -43844,7 +43844,7 @@
         <v>1362.7475158711629</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -43940,7 +43940,7 @@
         <v>509.37178253755411</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -44036,7 +44036,7 @@
         <v>709.57080174890837</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -44090,7 +44090,7 @@
       <c r="AU10" s="39"/>
       <c r="AV10" s="40"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -44186,7 +44186,7 @@
         <v>623.87746330944913</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -44282,7 +44282,7 @@
         <v>530.69810395626769</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -44378,7 +44378,7 @@
         <v>334.17531196790338</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -44474,7 +44474,7 @@
         <v>246.76488963198398</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -44570,7 +44570,7 @@
         <v>187.12978093751479</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -44666,7 +44666,7 @@
         <v>171.14476367609271</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -44762,7 +44762,7 @@
         <v>1016.100784935866</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -44858,7 +44858,7 @@
         <v>896.99319598200975</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -44954,7 +44954,7 @@
         <v>2047.7</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -45050,7 +45050,7 @@
         <v>5789.4</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -45146,7 +45146,7 @@
         <v>625.48935569969103</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -45242,7 +45242,7 @@
         <v>2650.202147460303</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -45338,7 +45338,7 @@
         <v>2511.9145609982002</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -45434,7 +45434,7 @@
         <v>3626.7</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -45530,7 +45530,7 @@
         <v>3545.9704397551486</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -45626,7 +45626,7 @@
         <v>77.291940885064463</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -45722,7 +45722,7 @@
         <v>435.3</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -45818,7 +45818,7 @@
         <v>1055.5999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -45914,7 +45914,7 @@
         <v>142.09325927995226</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -46010,7 +46010,7 @@
         <v>570.93856319412907</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -46106,7 +46106,7 @@
         <v>349.35300881508027</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -46202,7 +46202,7 @@
         <v>772.7</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -46298,7 +46298,7 @@
         <v>1838.6</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -46394,7 +46394,7 @@
         <v>1851.2</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -46490,7 +46490,7 @@
         <v>4694.0604138356184</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -46586,7 +46586,7 @@
         <v>1795.5</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -46682,7 +46682,7 @@
         <v>1314.2</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -46778,7 +46778,7 @@
         <v>997.1</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -46874,7 +46874,7 @@
         <v>563.5309884519188</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -46970,7 +46970,7 @@
         <v>288.2</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -47066,7 +47066,7 @@
         <v>274.5</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -47162,7 +47162,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -47187,13 +47187,13 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="48" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="48" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -47339,7 +47339,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -47435,7 +47435,7 @@
         <v>110.89043857174229</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -47531,7 +47531,7 @@
         <v>109.12838989771963</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -47627,7 +47627,7 @@
         <v>118.637</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -47723,7 +47723,7 @@
         <v>114.95</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -47819,7 +47819,7 @@
         <v>105.672</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -47915,7 +47915,7 @@
         <v>112.2385624046556</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -48011,7 +48011,7 @@
         <v>103.1584166337081</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -48107,7 +48107,7 @@
         <v>109.05130685349449</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -48161,7 +48161,7 @@
       <c r="AU10" s="39"/>
       <c r="AV10" s="40"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -48257,7 +48257,7 @@
         <v>103.09441899625457</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -48353,7 +48353,7 @@
         <v>125.78365218373921</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -48449,7 +48449,7 @@
         <v>104.6799007853551</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -48545,7 +48545,7 @@
         <v>104.53193959273921</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -48641,7 +48641,7 @@
         <v>108.9647345047743</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -48737,7 +48737,7 @@
         <v>111.7708727046726</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -48833,7 +48833,7 @@
         <v>106.8442095033618</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -48929,7 +48929,7 @@
         <v>109.51030670021953</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -49025,7 +49025,7 @@
         <v>119.18</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -49121,7 +49121,7 @@
         <v>105.605</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -49217,7 +49217,7 @@
         <v>104.0572039016396</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -49313,7 +49313,7 @@
         <v>109.5814359562148</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -49409,7 +49409,7 @@
         <v>101.87065024258661</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -49505,7 +49505,7 @@
         <v>107.908</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -49601,7 +49601,7 @@
         <v>108.11531716768121</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -49697,7 +49697,7 @@
         <v>103.3261831337099</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -49793,7 +49793,7 @@
         <v>118.63500000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -49889,7 +49889,7 @@
         <v>109.872</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -49985,7 +49985,7 @@
         <v>128.6570140028235</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -50081,7 +50081,7 @@
         <v>93.624283414094393</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -50177,7 +50177,7 @@
         <v>126.6322066465718</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -50273,7 +50273,7 @@
         <v>90.542000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -50369,7 +50369,7 @@
         <v>122.69</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -50465,7 +50465,7 @@
         <v>118.11199999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -50561,7 +50561,7 @@
         <v>116.95844356451136</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -50657,7 +50657,7 @@
         <v>113.685</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -50753,7 +50753,7 @@
         <v>112.59099999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -50849,7 +50849,7 @@
         <v>125.417</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -50945,7 +50945,7 @@
         <v>122.37126513564169</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -51041,7 +51041,7 @@
         <v>127.997</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -51137,7 +51137,7 @@
         <v>116.81100000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -51233,7 +51233,7 @@
         <v>122.004</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -51258,16 +51258,16 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
-    <col min="13" max="17" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="47" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="12" width="9.15625" style="1"/>
+    <col min="13" max="17" width="9.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="47" width="9.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -51413,7 +51413,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -51509,7 +51509,7 @@
         <v>62526.099999999991</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -51605,7 +51605,7 @@
         <v>52695.900000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -51701,7 +51701,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -51797,7 +51797,7 @@
         <v>190.1</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -51893,7 +51893,7 @@
         <v>18716.099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -51989,7 +51989,7 @@
         <v>3967.4677049871661</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -52085,7 +52085,7 @@
         <v>815.42074054485454</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -52181,7 +52181,7 @@
         <v>1595.768990454827</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -52280,7 +52280,7 @@
       <c r="AX10" s="38"/>
       <c r="AY10" s="38"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -52376,7 +52376,7 @@
         <v>1996.4013107036501</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -52472,7 +52472,7 @@
         <v>1343.9348620426681</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -52568,7 +52568,7 @@
         <v>717.11255831090853</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -52664,7 +52664,7 @@
         <v>508.74472816570642</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -52760,7 +52760,7 @@
         <v>380.04018421994567</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -52856,7 +52856,7 @@
         <v>363.48691705783392</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -52952,7 +52952,7 @@
         <v>2091.8727108005251</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -53048,7 +53048,7 @@
         <v>2409.1999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -53144,7 +53144,7 @@
         <v>4203.8</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -53240,7 +53240,7 @@
         <v>8654.7000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -53336,7 +53336,7 @@
         <v>968.85135963601999</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -53432,7 +53432,7 @@
         <v>4351.1452366765106</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -53528,7 +53528,7 @@
         <v>3334.7558081391271</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -53624,7 +53624,7 @@
         <v>6797.1</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -53720,7 +53720,7 @@
         <v>6680.3060373882254</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -53816,7 +53816,7 @@
         <v>116.7939626117748</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -53912,7 +53912,7 @@
         <v>768.5</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -54008,7 +54008,7 @@
         <v>1782.5</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -54104,7 +54104,7 @@
         <v>344.27001976388192</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -54200,7 +54200,7 @@
         <v>750.72333761877906</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -54296,7 +54296,7 @@
         <v>687.50664261733914</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -54392,7 +54392,7 @@
         <v>1260.3</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -54488,7 +54488,7 @@
         <v>3065.1</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -54584,7 +54584,7 @@
         <v>3421.6</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -54680,7 +54680,7 @@
         <v>7851.1</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -54776,7 +54776,7 @@
         <v>2977.1</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -54872,7 +54872,7 @@
         <v>1855.2</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -54968,7 +54968,7 @@
         <v>1903.7</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -55064,7 +55064,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -55160,7 +55160,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -55256,7 +55256,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -55352,7 +55352,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -55377,16 +55377,16 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
-    <col min="13" max="29" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="47" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="12" width="9.15625" style="1"/>
+    <col min="13" max="29" width="9.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="47" width="9.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -55532,7 +55532,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -55628,7 +55628,7 @@
         <v>28949.8</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -55724,7 +55724,7 @@
         <v>26175.9</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -55820,7 +55820,7 @@
         <v>2185.5</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -55916,7 +55916,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -56012,7 +56012,7 @@
         <v>12222.2</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -56108,7 +56108,7 @@
         <v>2437.939483968215</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -56204,7 +56204,7 @@
         <v>289.96087490021881</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -56300,7 +56300,7 @@
         <v>821.97275809682321</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -56399,7 +56399,7 @@
       <c r="AX10" s="38"/>
       <c r="AY10" s="38"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -56495,7 +56495,7 @@
         <v>1353.2184646562023</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -56591,7 +56591,7 @@
         <v>676.40340481661724</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -56687,7 +56687,7 @@
         <v>367.29817329375629</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -56783,7 +56783,7 @@
         <v>250.79660279951128</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -56879,7 +56879,7 @@
         <v>176.13471524201699</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -56975,7 +56975,7 @@
         <v>172.19692110871549</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -57071,7 +57071,7 @@
         <v>1006.227859378345</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -57167,7 +57167,7 @@
         <v>1426.9</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -57263,7 +57263,7 @@
         <v>1763.3</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -57359,7 +57359,7 @@
         <v>2540.8000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -57455,7 +57455,7 @@
         <v>317.98462539254052</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -57551,7 +57551,7 @@
         <v>1447.0156677470709</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -57647,7 +57647,7 @@
         <v>775.85211131204551</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -57743,7 +57743,7 @@
         <v>2883.6</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -57839,7 +57839,7 @@
         <v>2846.5688497747251</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -57935,7 +57935,7 @@
         <v>36.93115022527428</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -58031,7 +58031,7 @@
         <v>252.1</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -58127,7 +58127,7 @@
         <v>622.70000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -58223,7 +58223,7 @@
         <v>161.45707527500539</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -58319,7 +58319,7 @@
         <v>216.18619909354931</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -58415,7 +58415,7 @@
         <v>245.11321856861051</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -58511,7 +58511,7 @@
         <v>560.70000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -58607,7 +58607,7 @@
         <v>809.4</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -58703,7 +58703,7 @@
         <v>1235.2</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -58799,7 +58799,7 @@
         <v>2360.9</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -58895,7 +58895,7 @@
         <v>935.9</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -58991,7 +58991,7 @@
         <v>375.5</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -59087,7 +59087,7 @@
         <v>653.1</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -59183,7 +59183,7 @@
         <v>396.4</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -59279,7 +59279,7 @@
         <v>177.1</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -59375,7 +59375,7 @@
         <v>219.3</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -59471,7 +59471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -59496,16 +59496,16 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
-    <col min="13" max="44" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="12" width="9.15625" style="1"/>
+    <col min="13" max="44" width="9.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="9.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -59651,7 +59651,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -59747,7 +59747,7 @@
         <v>15575.000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -59843,7 +59843,7 @@
         <v>11727.800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -59939,7 +59939,7 @@
         <v>375.2</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -60035,7 +60035,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -60131,7 +60131,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -60227,7 +60227,7 @@
         <v>555.17741892688753</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -60323,7 +60323,7 @@
         <v>288.45234656855132</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -60419,7 +60419,7 @@
         <v>351.32979676748982</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -60518,7 +60518,7 @@
       <c r="AX10" s="38"/>
       <c r="AY10" s="38"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -60614,7 +60614,7 @@
         <v>150.5401717356369</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -60710,7 +60710,7 @@
         <v>252.61241636423711</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -60806,7 +60806,7 @@
         <v>195.01186662967461</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -60902,7 +60902,7 @@
         <v>140.37554309949564</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -60998,7 +60998,7 @@
         <v>106.01311228426169</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -61094,7 +61094,7 @@
         <v>63.337293916574417</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -61190,7 +61190,7 @@
         <v>584.29225194766173</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -61286,7 +61286,7 @@
         <v>384.29999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -61382,7 +61382,7 @@
         <v>1253.0999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -61478,7 +61478,7 @@
         <v>2716.3</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -61574,7 +61574,7 @@
         <v>333.14402153812438</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -61670,7 +61670,7 @@
         <v>1183.7094396706821</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -61766,7 +61766,7 @@
         <v>1199.449480075411</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -61862,7 +61862,7 @@
         <v>1366.4</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -61958,7 +61958,7 @@
         <v>1307.34706848479</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -62054,7 +62054,7 @@
         <v>59.052931515209927</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -62150,7 +62150,7 @@
         <v>319.39999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -62246,7 +62246,7 @@
         <v>656.4</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -62342,7 +62342,7 @@
         <v>100.258778893686</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -62438,7 +62438,7 @@
         <v>171.23917484490241</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -62534,7 +62534,7 @@
         <v>384.83936482520068</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -62630,7 +62630,7 @@
         <v>342.8</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -62726,7 +62726,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -62822,7 +62822,7 @@
         <v>1189.9000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -62918,7 +62918,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -63014,7 +63014,7 @@
         <v>1182.7</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -63110,7 +63110,7 @@
         <v>1314.4</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -63206,7 +63206,7 @@
         <v>1138.5</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -63302,7 +63302,7 @@
         <v>336.3</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -63398,7 +63398,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -63494,7 +63494,7 @@
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -63590,7 +63590,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -63607,21 +63607,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AY43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="V20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AJ37" sqref="AJ37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="48" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="48" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -63767,7 +63767,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -63863,7 +63863,7 @@
         <v>1334.7199999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -63959,7 +63959,7 @@
         <v>1014.7</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -64055,7 +64055,7 @@
         <v>120.91</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -64151,7 +64151,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -64247,7 +64247,7 @@
         <v>202.66</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -64343,7 +64343,7 @@
         <v>45.446782439032418</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -64439,7 +64439,7 @@
         <v>30.477191496741732</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -64535,7 +64535,7 @@
         <v>32.406025931673668</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -64634,7 +64634,7 @@
       <c r="AX10" s="38"/>
       <c r="AY10" s="38"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -64730,7 +64730,7 @@
         <v>6.4471725365440893</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -64826,7 +64826,7 @@
         <v>15.946408667493481</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -64922,7 +64922,7 @@
         <v>14.058810078891741</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -65018,7 +65018,7 @@
         <v>7.0284456639790545</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -65114,7 +65114,7 @@
         <v>7.867951349949279</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -65210,7 +65210,7 @@
         <v>3.2212222348825299</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -65306,7 +65306,7 @@
         <v>37.696563257862877</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -65402,7 +65402,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -65498,7 +65498,7 @@
         <v>104.83</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -65594,7 +65594,7 @@
         <v>224.48</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -65690,7 +65690,7 @@
         <v>33.771755471711643</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -65786,7 +65786,7 @@
         <v>59.593050992351621</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -65882,7 +65882,7 @@
         <v>131.12002002486381</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -65978,7 +65978,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -66074,7 +66074,7 @@
         <v>92.064048178457668</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -66170,7 +66170,7 @@
         <v>8.0412576627381203</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -66266,7 +66266,7 @@
         <v>33.85</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -66362,7 +66362,7 @@
         <v>27.24</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -66458,7 +66458,7 @@
         <v>6.9493191893844344</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -66554,7 +66554,7 @@
         <v>7.3075063913919633</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -66650,7 +66650,7 @@
         <v>12.9831744192236</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -66746,7 +66746,7 @@
         <v>18.61</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -66842,7 +66842,7 @@
         <v>14.55</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -66938,7 +66938,7 @@
         <v>100.86</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -67034,7 +67034,7 @@
         <v>359.71999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -67130,7 +67130,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -67226,7 +67226,7 @@
         <v>132.22999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -67322,7 +67322,7 @@
         <v>89.79</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -67418,7 +67418,7 @@
         <v>54.25</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -67514,7 +67514,7 @@
         <v>28.38</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -67610,7 +67610,7 @@
         <v>25.87</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -67706,7 +67706,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
@@ -67771,6 +67771,9 @@
         <v>0</v>
       </c>
       <c r="AU43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="1">
         <v>0</v>
       </c>
     </row>
@@ -67791,13 +67794,13 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="3" max="48" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.68359375" customWidth="1"/>
+    <col min="3" max="48" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="36" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
         <v>43</v>
       </c>
@@ -67943,7 +67946,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -68039,7 +68042,7 @@
         <v>1171.0000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -68135,7 +68138,7 @@
         <v>856.68000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>897</v>
       </c>
@@ -68231,7 +68234,7 @@
         <v>52.92</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>898</v>
       </c>
@@ -68327,7 +68330,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>899</v>
       </c>
@@ -68423,7 +68426,7 @@
         <v>192.03</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>900</v>
       </c>
@@ -68519,7 +68522,7 @@
         <v>44.659513713197803</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -68615,7 +68618,7 @@
         <v>27.760008571091522</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -68711,7 +68714,7 @@
         <v>29.95247034692472</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>903</v>
       </c>
@@ -68810,7 +68813,7 @@
       <c r="AX10" s="38"/>
       <c r="AY10" s="38"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>904</v>
       </c>
@@ -68906,7 +68909,7 @@
         <v>6.3790193008633302</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>905</v>
       </c>
@@ -69002,7 +69005,7 @@
         <v>15.32241311871814</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>906</v>
       </c>
@@ -69098,7 +69101,7 @@
         <v>13.02504275074986</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>907</v>
       </c>
@@ -69194,7 +69197,7 @@
         <v>6.9544153543577902</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>908</v>
       </c>
@@ -69290,7 +69293,7 @@
         <v>7.7835924609798974</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>909</v>
       </c>
@@ -69386,7 +69389,7 @@
         <v>3.1873579922063588</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>910</v>
       </c>
@@ -69482,7 +69485,7 @@
         <v>34.970316269221613</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>911</v>
       </c>
@@ -69578,7 +69581,7 @@
         <v>24.549999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>912</v>
       </c>
@@ -69674,7 +69677,7 @@
         <v>89.92</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -69770,7 +69773,7 @@
         <v>196.66</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>914</v>
       </c>
@@ -69866,7 +69869,7 @@
         <v>27.849913550011749</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>915</v>
       </c>
@@ -69962,7 +69965,7 @@
         <v>57.963080513119877</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>916</v>
       </c>
@@ -70058,7 +70061,7 @@
         <v>110.8470059368684</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>917</v>
       </c>
@@ -70154,7 +70157,7 @@
         <v>95.07</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>918</v>
       </c>
@@ -70250,7 +70253,7 @@
         <v>87.272470531151782</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -70346,7 +70349,7 @@
         <v>7.7872575464118521</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -70442,7 +70445,7 @@
         <v>31.66</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>921</v>
       </c>
@@ -70538,7 +70541,7 @@
         <v>24.02</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>922</v>
       </c>
@@ -70634,7 +70637,7 @@
         <v>6.1397943565675073</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>923</v>
       </c>
@@ -70730,7 +70733,7 @@
         <v>6.5513999821083848</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>924</v>
       </c>
@@ -70826,7 +70829,7 @@
         <v>11.3340940805227</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>925</v>
       </c>
@@ -70922,7 +70925,7 @@
         <v>16.989999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>926</v>
       </c>
@@ -71018,7 +71021,7 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>927</v>
       </c>
@@ -71114,7 +71117,7 @@
         <v>89.44</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -71210,7 +71213,7 @@
         <v>342.59</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>929</v>
       </c>
@@ -71306,7 +71309,7 @@
         <v>82.35</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>930</v>
       </c>
@@ -71402,7 +71405,7 @@
         <v>131.22999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>931</v>
       </c>
@@ -71498,7 +71501,7 @@
         <v>86.92</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>932</v>
       </c>
@@ -71594,7 +71597,7 @@
         <v>41.21</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>933</v>
       </c>
@@ -71690,7 +71693,7 @@
         <v>26.14</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>934</v>
       </c>
@@ -71786,7 +71789,7 @@
         <v>15.07</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>935</v>
       </c>
@@ -71882,7 +71885,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>936</v>
       </c>
